--- a/StructureDefinition-ext-R5-Account.diagnosis.xlsx
+++ b/StructureDefinition-ext-R5-Account.diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Account.diagnosis` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Account.diagnosis` is mapped to FHIR R4 structure `Account`, but has no target element specified.</t>
+Element `Account.diagnosis` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Account</t>
   </si>
   <si>
     <t>ID</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `Account.diagnosis.sequence` is part of an existing definition because parent element `Account.diagnosis` requires a cross-version extension.
-Element `Account.diagnosis.sequence` is mapped to FHIR R4 structure `Account`, but has no target element specified.</t>
+Element `Account.diagnosis.sequence` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:sequence.id</t>
@@ -422,7 +422,7 @@
   </si>
   <si>
     <t>Element `Account.diagnosis.condition` is part of an existing definition because parent element `Account.diagnosis` requires a cross-version extension.
-Element `Account.diagnosis.condition` is mapped to FHIR R4 structure `Account`, but has no target element specified.</t>
+Element `Account.diagnosis.condition` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:condition.id</t>
@@ -495,7 +495,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:condition.extension:concept.id</t>
@@ -532,7 +532,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>
@@ -572,7 +572,7 @@
   </si>
   <si>
     <t>Element `Account.diagnosis.dateOfDiagnosis` is part of an existing definition because parent element `Account.diagnosis` requires a cross-version extension.
-Element `Account.diagnosis.dateOfDiagnosis` is mapped to FHIR R4 structure `Account`, but has no target element specified.</t>
+Element `Account.diagnosis.dateOfDiagnosis` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:dateOfDiagnosis.id</t>
@@ -604,7 +604,7 @@
   </si>
   <si>
     <t>Element `Account.diagnosis.type` is part of an existing definition because parent element `Account.diagnosis` requires a cross-version extension.
-Element `Account.diagnosis.type` is mapped to FHIR R4 structure `Account`, but has no target element specified.</t>
+Element `Account.diagnosis.type` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -632,7 +632,7 @@
   </si>
   <si>
     <t>Element `Account.diagnosis.onAdmission` is part of an existing definition because parent element `Account.diagnosis` requires a cross-version extension.
-Element `Account.diagnosis.onAdmission` is mapped to FHIR R4 structure `Account`, but has no target element specified.</t>
+Element `Account.diagnosis.onAdmission` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:onAdmission.id</t>
@@ -664,7 +664,7 @@
   </si>
   <si>
     <t>Element `Account.diagnosis.packageCode` is part of an existing definition because parent element `Account.diagnosis` requires a cross-version extension.
-Element `Account.diagnosis.packageCode` is mapped to FHIR R4 structure `Account`, but has no target element specified.</t>
+Element `Account.diagnosis.packageCode` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:packageCode.id</t>
@@ -1016,7 +1016,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="126.40234375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="141.078125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-Account.diagnosis.xlsx
+++ b/StructureDefinition-ext-R5-Account.diagnosis.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="217">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Account.diagnosis` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Account.diagnosis` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+Element `Account.diagnosis` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `Account.diagnosis.sequence` is part of an existing definition because parent element `Account.diagnosis` requires a cross-version extension.
-Element `Account.diagnosis.sequence` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+Element `Account.diagnosis.sequence` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:sequence.id</t>
@@ -386,6 +386,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.diagnosis.sequence</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -422,7 +425,7 @@
   </si>
   <si>
     <t>Element `Account.diagnosis.condition` is part of an existing definition because parent element `Account.diagnosis` requires a cross-version extension.
-Element `Account.diagnosis.condition` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+Element `Account.diagnosis.condition` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:condition.id</t>
@@ -494,8 +497,8 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
+Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:condition.extension:concept.id</t>
@@ -532,8 +535,8 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
+    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
+Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:condition.extension:reference.id</t>
@@ -555,6 +558,9 @@
     <t>Extension.extension:condition.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.diagnosis.condition</t>
+  </si>
+  <si>
     <t>Extension.extension:condition.value[x]</t>
   </si>
   <si>
@@ -572,7 +578,7 @@
   </si>
   <si>
     <t>Element `Account.diagnosis.dateOfDiagnosis` is part of an existing definition because parent element `Account.diagnosis` requires a cross-version extension.
-Element `Account.diagnosis.dateOfDiagnosis` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+Element `Account.diagnosis.dateOfDiagnosis` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:dateOfDiagnosis.id</t>
@@ -582,6 +588,9 @@
   </si>
   <si>
     <t>Extension.extension:dateOfDiagnosis.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.diagnosis.dateOfDiagnosis</t>
   </si>
   <si>
     <t>Extension.extension:dateOfDiagnosis.value[x]</t>
@@ -604,7 +613,7 @@
   </si>
   <si>
     <t>Element `Account.diagnosis.type` is part of an existing definition because parent element `Account.diagnosis` requires a cross-version extension.
-Element `Account.diagnosis.type` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+Element `Account.diagnosis.type` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -616,6 +625,9 @@
     <t>Extension.extension:type.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.diagnosis.type</t>
+  </si>
+  <si>
     <t>Extension.extension:type.value[x]</t>
   </si>
   <si>
@@ -632,7 +644,7 @@
   </si>
   <si>
     <t>Element `Account.diagnosis.onAdmission` is part of an existing definition because parent element `Account.diagnosis` requires a cross-version extension.
-Element `Account.diagnosis.onAdmission` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+Element `Account.diagnosis.onAdmission` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:onAdmission.id</t>
@@ -642,6 +654,9 @@
   </si>
   <si>
     <t>Extension.extension:onAdmission.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.diagnosis.onAdmission</t>
   </si>
   <si>
     <t>Extension.extension:onAdmission.value[x]</t>
@@ -664,7 +679,7 @@
   </si>
   <si>
     <t>Element `Account.diagnosis.packageCode` is part of an existing definition because parent element `Account.diagnosis` requires a cross-version extension.
-Element `Account.diagnosis.packageCode` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+Element `Account.diagnosis.packageCode` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:packageCode.id</t>
@@ -674,6 +689,9 @@
   </si>
   <si>
     <t>Extension.extension:packageCode.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.diagnosis.packageCode</t>
   </si>
   <si>
     <t>Extension.extension:packageCode.value[x]</t>
@@ -1016,7 +1034,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="141.078125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="135.08984375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1822,7 +1840,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1864,7 +1882,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1879,15 +1897,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1910,7 +1928,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1967,7 +1985,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1979,21 +1997,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2018,14 +2036,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2094,7 +2112,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2197,7 +2215,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2300,13 +2318,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
@@ -2331,10 +2349,10 @@
         <v>93</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2405,10 +2423,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2508,10 +2526,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2613,10 +2631,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2656,7 +2674,7 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>77</v>
@@ -2698,7 +2716,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>86</v>
@@ -2713,15 +2731,15 @@
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2747,13 +2765,13 @@
         <v>87</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2761,7 +2779,7 @@
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>77</v>
@@ -2803,7 +2821,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -2815,21 +2833,21 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2854,14 +2872,14 @@
         <v>93</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -2930,10 +2948,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3033,10 +3051,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3138,10 +3156,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3181,7 +3199,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3223,7 +3241,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>86</v>
@@ -3238,15 +3256,15 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3269,13 +3287,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3302,11 +3320,11 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -3324,7 +3342,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3336,21 +3354,21 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3375,14 +3393,14 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3451,10 +3469,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3554,10 +3572,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3659,10 +3677,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3702,7 +3720,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3744,7 +3762,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -3759,15 +3777,15 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3790,13 +3808,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3847,7 +3865,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -3859,15 +3877,15 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -3910,7 +3928,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3952,7 +3970,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
@@ -3967,15 +3985,15 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3998,13 +4016,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4055,7 +4073,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4067,21 +4085,21 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4106,14 +4124,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>102</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4182,7 +4200,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -4285,7 +4303,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -4390,7 +4408,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4433,7 +4451,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4475,7 +4493,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
@@ -4490,15 +4508,15 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4521,10 +4539,10 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>102</v>
@@ -4578,7 +4596,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -4590,21 +4608,21 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4629,14 +4647,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4705,7 +4723,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -4808,7 +4826,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -4913,7 +4931,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -4956,7 +4974,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -4998,7 +5016,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>86</v>
@@ -5013,15 +5031,15 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5044,13 +5062,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5101,7 +5119,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5113,21 +5131,21 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5152,14 +5170,14 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5228,7 +5246,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>105</v>
@@ -5331,7 +5349,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>107</v>
@@ -5436,7 +5454,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>113</v>
@@ -5479,7 +5497,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -5521,7 +5539,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
@@ -5536,15 +5554,15 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5567,13 +5585,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5624,7 +5642,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -5636,21 +5654,21 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -5675,14 +5693,14 @@
         <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -5751,7 +5769,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>105</v>
@@ -5854,7 +5872,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>107</v>
@@ -5959,7 +5977,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>113</v>
@@ -6002,7 +6020,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6044,7 +6062,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>86</v>
@@ -6059,15 +6077,15 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6090,13 +6108,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6147,7 +6165,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -6159,18 +6177,18 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6252,7 +6270,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>86</v>
@@ -6267,15 +6285,15 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6298,13 +6316,13 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6355,7 +6373,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -6367,10 +6385,10 @@
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-Account.diagnosis.xlsx
+++ b/StructureDefinition-ext-R5-Account.diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -497,8 +497,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:condition.extension:concept.id</t>
@@ -520,7 +519,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-condition-code-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-condition-code-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:condition.extension:reference</t>
@@ -535,8 +534,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:condition.extension:reference.id</t>
@@ -551,7 +549,7 @@
     <t>Extension.extension:condition.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Condition|0.0.1-snapshot-3|Condition|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Condition|Condition)
 </t>
   </si>
   <si>
@@ -1034,7 +1032,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="135.08984375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="126.40234375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1045,7 +1043,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.4140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-Account.diagnosis.xlsx
+++ b/StructureDefinition-ext-R5-Account.diagnosis.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="212">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -338,8 +338,7 @@
     <t>Ranking of the diagnosis (for each type).</t>
   </si>
   <si>
-    <t>Element `Account.diagnosis.sequence` is part of an existing definition because parent element `Account.diagnosis` requires a cross-version extension.
-Element `Account.diagnosis.sequence` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+    <t>Element `Account.diagnosis.sequence` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:sequence.id</t>
@@ -386,9 +385,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.diagnosis.sequence</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -424,8 +420,7 @@
     <t>The diagnosis relevant to the account.</t>
   </si>
   <si>
-    <t>Element `Account.diagnosis.condition` is part of an existing definition because parent element `Account.diagnosis` requires a cross-version extension.
-Element `Account.diagnosis.condition` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+    <t>Element `Account.diagnosis.condition` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:condition.id</t>
@@ -497,7 +492,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
+    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:condition.extension:concept.id</t>
@@ -516,12 +511,6 @@
 </t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-condition-code-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:condition.extension:reference</t>
   </si>
   <si>
@@ -534,7 +523,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:condition.extension:reference.id</t>
@@ -549,14 +538,11 @@
     <t>Extension.extension:condition.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Condition|Condition)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Condition|0.0.1-snapshot-3|Condition|4.0.1)
 </t>
   </si>
   <si>
     <t>Extension.extension:condition.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.diagnosis.condition</t>
   </si>
   <si>
     <t>Extension.extension:condition.value[x]</t>
@@ -575,8 +561,7 @@
     <t>Date of the diagnosis (when coded diagnosis)</t>
   </si>
   <si>
-    <t>Element `Account.diagnosis.dateOfDiagnosis` is part of an existing definition because parent element `Account.diagnosis` requires a cross-version extension.
-Element `Account.diagnosis.dateOfDiagnosis` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+    <t>Element `Account.diagnosis.dateOfDiagnosis` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:dateOfDiagnosis.id</t>
@@ -586,9 +571,6 @@
   </si>
   <si>
     <t>Extension.extension:dateOfDiagnosis.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.diagnosis.dateOfDiagnosis</t>
   </si>
   <si>
     <t>Extension.extension:dateOfDiagnosis.value[x]</t>
@@ -610,8 +592,7 @@
     <t>Type that this diagnosis has relevant to the account (e.g. admission, billing, discharge …).</t>
   </si>
   <si>
-    <t>Element `Account.diagnosis.type` is part of an existing definition because parent element `Account.diagnosis` requires a cross-version extension.
-Element `Account.diagnosis.type` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+    <t>Element `Account.diagnosis.type` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -623,12 +604,18 @@
     <t>Extension.extension:type.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.diagnosis.type</t>
-  </si>
-  <si>
     <t>Extension.extension:type.value[x]</t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>The type of diagnosis this condition represents.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-encounter-diagnosis-use-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:onAdmission</t>
   </si>
   <si>
@@ -641,8 +628,7 @@
     <t>Was the Diagnosis present on Admission in the related Encounter.</t>
   </si>
   <si>
-    <t>Element `Account.diagnosis.onAdmission` is part of an existing definition because parent element `Account.diagnosis` requires a cross-version extension.
-Element `Account.diagnosis.onAdmission` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+    <t>Element `Account.diagnosis.onAdmission` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:onAdmission.id</t>
@@ -652,9 +638,6 @@
   </si>
   <si>
     <t>Extension.extension:onAdmission.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.diagnosis.onAdmission</t>
   </si>
   <si>
     <t>Extension.extension:onAdmission.value[x]</t>
@@ -676,8 +659,7 @@
     <t>The package code can be used to group diagnoses that may be priced or delivered as a single product. Such as DRGs.</t>
   </si>
   <si>
-    <t>Element `Account.diagnosis.packageCode` is part of an existing definition because parent element `Account.diagnosis` requires a cross-version extension.
-Element `Account.diagnosis.packageCode` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+    <t>Element `Account.diagnosis.packageCode` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:packageCode.id</t>
@@ -687,9 +669,6 @@
   </si>
   <si>
     <t>Extension.extension:packageCode.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.diagnosis.packageCode</t>
   </si>
   <si>
     <t>Extension.extension:packageCode.value[x]</t>
@@ -1032,7 +1011,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="126.40234375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="131.76171875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1042,8 +1021,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.4140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="38.84765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="73.46875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1838,72 +1817,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1926,7 +1905,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1983,33 +1962,33 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2034,14 +2013,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2110,7 +2089,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2213,7 +2192,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2316,13 +2295,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
@@ -2347,10 +2326,10 @@
         <v>93</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2421,10 +2400,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2524,10 +2503,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2629,10 +2608,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2672,7 +2651,7 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>77</v>
@@ -2714,30 +2693,30 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2763,13 +2742,13 @@
         <v>87</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2777,7 +2756,7 @@
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>77</v>
@@ -2819,33 +2798,33 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK17" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2870,14 +2849,14 @@
         <v>93</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -2946,10 +2925,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3049,10 +3028,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3154,10 +3133,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3197,7 +3176,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3239,30 +3218,30 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3285,13 +3264,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3318,11 +3297,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -3340,33 +3321,33 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK22" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3391,14 +3372,14 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3467,10 +3448,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3570,10 +3551,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3675,10 +3656,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3718,7 +3699,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3760,30 +3741,30 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3806,13 +3787,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3863,27 +3844,27 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK27" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -3926,7 +3907,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3968,30 +3949,30 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4014,13 +3995,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4071,33 +4052,33 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4122,14 +4103,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>102</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4198,7 +4179,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -4301,7 +4282,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -4406,7 +4387,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4449,7 +4430,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4491,30 +4472,30 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4537,10 +4518,10 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>102</v>
@@ -4594,33 +4575,33 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK34" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4645,14 +4626,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4721,7 +4702,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -4824,7 +4805,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -4929,7 +4910,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -4972,7 +4953,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5014,30 +4995,30 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5060,13 +5041,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5093,13 +5074,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -5117,33 +5098,33 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK39" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5168,14 +5149,14 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5244,7 +5225,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>105</v>
@@ -5347,7 +5328,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>107</v>
@@ -5452,7 +5433,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>113</v>
@@ -5495,7 +5476,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -5537,30 +5518,30 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5583,13 +5564,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5640,33 +5621,33 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK44" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -5691,14 +5672,14 @@
         <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -5767,7 +5748,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>105</v>
@@ -5870,7 +5851,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>107</v>
@@ -5975,7 +5956,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>113</v>
@@ -6018,7 +5999,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6060,30 +6041,30 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6106,13 +6087,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6163,30 +6144,30 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK49" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6268,30 +6249,30 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6314,13 +6295,13 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6371,22 +6352,22 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK51" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
